--- a/new_Домашние работы. Основы тестирования.xlsx
+++ b/new_Домашние работы. Основы тестирования.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Tel-Ran\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E9294A-3591-4B19-B93D-2E5352E4BC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1338A653-EF0F-4105-B37F-EC6FD67B6409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Урок 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="110">
   <si>
     <t>Урок 1. Тестирование. Жизненный цикл разработки ПО. Управление проектами</t>
   </si>
@@ -276,76 +276,6 @@
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Quantity </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>и выделить классы эквивалентности. Выделенные классы эквивалентности выпишите ниже.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Задание 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Необходимо открыть страницу </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>http://ufo.telran-edu.de:8888/contact.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> , прочитать </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>требование</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> к полю </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Full Name </t>
     </r>
     <r>
       <rPr>
@@ -787,6 +717,141 @@
     </r>
   </si>
   <si>
+    <t>1) до 1  2) от 1 до20   3) больше 20</t>
+  </si>
+  <si>
+    <t>1) до 3 2) от 3 до 25  3) более 25</t>
+  </si>
+  <si>
+    <t>0 , 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) </t>
+  </si>
+  <si>
+    <t>Контакты</t>
+  </si>
+  <si>
+    <t>открыта страницы Контакты http://ufo.telran-edu.de:8888/contact.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выбрать "Model S" из выпадающего списка  "Select UFO" </t>
+  </si>
+  <si>
+    <t>"Model S" выбрана</t>
+  </si>
+  <si>
+    <t>написать количество 5 в поле "Quantity"</t>
+  </si>
+  <si>
+    <t>значение 5 отображено в поле</t>
+  </si>
+  <si>
+    <t>написать дату в поле "Date"  2023.05.12</t>
+  </si>
+  <si>
+    <t>12.05.2023 дата записана в поле</t>
+  </si>
+  <si>
+    <t xml:space="preserve">написать время 10 в поле "Time" в формате AM </t>
+  </si>
+  <si>
+    <t>10 AM записано в поле</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> в поле Full Name ввести Ivan Ivanov</t>
+  </si>
+  <si>
+    <t>Ivan Ivanov записан</t>
+  </si>
+  <si>
+    <t>Поле Phone No +380674562341</t>
+  </si>
+  <si>
+    <t>поле заполнено</t>
+  </si>
+  <si>
+    <t>Поде Your Email - ivan.ivanov@gmail.com</t>
+  </si>
+  <si>
+    <t>Поле  Address - 345-65 Canada Toronto Jagodnaja 24</t>
+  </si>
+  <si>
+    <t>Поле  Any Special Request - test text 12345</t>
+  </si>
+  <si>
+    <t>клик "Contact us"</t>
+  </si>
+  <si>
+    <t>отображается уведомление в виде тоаста “Your message has been sent”</t>
+  </si>
+  <si>
+    <t>все работает</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выбрать "Model T" из выпадающего списка  "Select UFO" </t>
+  </si>
+  <si>
+    <t>"Model T" выбрана</t>
+  </si>
+  <si>
+    <t>написать количество 26 в поле "Quantity"</t>
+  </si>
+  <si>
+    <t>значение 26 отображено в поле</t>
+  </si>
+  <si>
+    <t>отображается уведомление в виде тоаста “Ошибка значение должно быть меньше или равно 20”</t>
+  </si>
+  <si>
+    <t>faled</t>
+  </si>
+  <si>
+    <t>значение 5  отображено в поле</t>
+  </si>
+  <si>
+    <t>написать дату в поле "Date"  23/05/2028</t>
+  </si>
+  <si>
+    <t>23/05/2028 дата записана в поле</t>
+  </si>
+  <si>
+    <t>о поле подсвечивается красным и отображается текст “Incorrect data”.</t>
+  </si>
+  <si>
+    <t>ошибка не отобразилась , форма очистилась</t>
+  </si>
+  <si>
+    <t>отправить заявку на резерв НЛО - позитивный тест</t>
+  </si>
+  <si>
+    <t>отправить заявку на резерв НЛО - негативный тест - количество больше 25</t>
+  </si>
+  <si>
+    <t>отправить заявку на резерв НЛО - негативный тест - неверный формат даты</t>
+  </si>
+  <si>
+    <t>Несоответствие --- отображается уведомление в виде текста “Ошибка значение должно быть меньше или равно 5”, а вместо 5 должно быть 20</t>
+  </si>
+  <si>
+    <t>отправить заявку на резерв НЛО - негативный тест -  Full Name - в поле не только латинские буквы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> в поле Full Name ввести Ваня</t>
+  </si>
+  <si>
+    <t>не дает записать значение</t>
+  </si>
+  <si>
+    <t>отправить заявку на резерв НЛО - негативный тест - телефон заполнен неверно</t>
+  </si>
+  <si>
+    <t>Поле Phone No 12345</t>
+  </si>
+  <si>
     <t>Уточняющие вопросы я задам продюсеру (для понимания продукта и ожидаемого конечного результата), релиз-инженеру (о версии кода, которую нужно протестировать).
 Необходимо осуществить проверку на правильность работы приложения при различных условиях использования и соответствие продукта требованиям, а также обнаружить варианты использования, которые не были предусмотрены при разработке.
 Этапы
@@ -800,12 +865,125 @@
 - проверка функционала, который мог быть затронут при починке багов, документирование если таковые имелись
 5.	Релиз , финальный этап тестирования</t>
   </si>
+  <si>
+    <t>Задание 2. Необходимо открыть страницу http://ufo.telran-edu.de:8888/contact.html , прочитать требование к полю Full Name и выделить классы эквивалентности. Выделенные классы эквивалентности выпишите ниже.</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Поле не активно</t>
+  </si>
+  <si>
+    <t>Contact Us / Address</t>
+  </si>
+  <si>
+    <t>Contact Us / Email Us</t>
+  </si>
+  <si>
+    <t>Contact Us /Call Now</t>
+  </si>
+  <si>
+    <t>We Make Good UFOs / видео</t>
+  </si>
+  <si>
+    <t>Personal Information /Any Special Request?</t>
+  </si>
+  <si>
+    <t>Personal Information / Address*</t>
+  </si>
+  <si>
+    <t>Personal Information /  Your Email*</t>
+  </si>
+  <si>
+    <t>Personal Information / Phone No*</t>
+  </si>
+  <si>
+    <t>Personal Information / Full Name*</t>
+  </si>
+  <si>
+    <t>Make a Reservation Your Own UFO / Time*</t>
+  </si>
+  <si>
+    <t>Make a Reservation Your Own UFO / Date*</t>
+  </si>
+  <si>
+    <t>Make a Reservation Your Own UFO / Quantity*</t>
+  </si>
+  <si>
+    <t>Make a Reservation Your Own UFO / Select UFO*</t>
+  </si>
+  <si>
+    <t>Call Now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Us </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address </t>
+  </si>
+  <si>
+    <t>проигрывается неверный ролик (не о компании)</t>
+  </si>
+  <si>
+    <t>клик не отрабатывает</t>
+  </si>
+  <si>
+    <t>Несоответствие в техническом задании :
+1.	Баннер с ежедневным предложением – не указано в документации назначение “Buy UFO with 60% discount” Если это функциональная кнопка, то что происходит при ее нажатии?
+2.	Блок с промо-роликом - ??? для чего наверху указаны модели S T F означает ли это, что при нажатии на них можно просмотреть видео по этим моделям)
+3.	Страница «About us» -  несоответствие макета и описания. В описании не указан футер и хеадер, отображенный в макете.
+4.	Страница «Contact» - несоответствие макета и описания. 
+a)	 В описании не указан футер и хеадер, отображенный в макете.
+b)    В техническом задании не указано требования , что поля, указанные ниже обязательные для заполнения ( хотя знак «*» в макете подразумевает , что эти поля обязательные):
+- Select UFO
+- Quantity
+- Date
+- Time
+- Full Name
+- Phone No
+- Your Email
+b)	Если пользователь введет неверные данные, то поле подсвечивается красным и отображается текст “Incorrect data”. (уточнить, что только конкретное поле, которое было неправильно заполнено подсвечивается красным, при этом остальные высвечиваются зеленым. В макете все поля отображены красным цветом)
+c)	В разделе Quantity пользователь может указать количество резерва от 1 до 20 , а при покупке «Order page» - минимально пользователь может добавить 1 позицию, а максимально - 10. Необходимо согласовать несоответствие.
+d)	Карточки товаров- сказано, что пользователь может увеличить количество, изменив с клавиатуры значение, не указано, что можно менять значение стрелками вверх и вниз
+5.	Calendar - Сказано, что пользователь может планировать встречи, добавлять новые встречи и удалять старые, причем как добавлять сказано, а каким образом удалять нет.
+6.	Products – Поле “Search”– не указано по какому полю происходит поиск
+7.	Dashboard – визуализация данного раздела предоставлена по ссылке  http://ufo.telran-edu.de:8888/admin . В поле «Daily Sales» отсутствует сумма. В технической документации не предоставлена информация о выводе данных ( откуда берутся и как их проверять непонятно)
+8.	Users – в технической документации указаны обязательные поля для карточки нового пользователя:
+-	аватар,
+-	Имя,
+-	Фамилия,
+-	Пароль,
+-	Повтор пароля,
+-	Логин,
+-	Почта.
+В самом макете они указаны на английском языке и обозначены знаком «*». 
+Как пользователь может понять , что загрузка аватарки обязательна ? Несоответствие !!! Плюс есть дополнительные поля , о которых вообще не сказано в документации. Также не сказано что происходит в случае неверного заполнения формы.
+Какой коммуникат высвечивается После нажатия на кнопку «Save user» в случае создания профиля нового пользователя? 
+Для каждого их полей не обозначены граничные значения и форматы полей.
+9.	Нефункциональные требования
+-	Требования по доступности – не указан какой комуникат должен высвечиваться в случае отказа системы.
+-	Требования к хранению персональных данных -  В системе могут храниться персональные данные пользователей(например, при бронировании столика). ( ??? возможна опечатка , непонятно о каком столике идет речь)</t>
+  </si>
+  <si>
+    <t>1) тестирование интерфейса - насколько удобен для пользователя
+2)тестирование безопасности - защита данных пользователя
+3)тестирование нагрузки и стресс - если большой поток покупателей и  пользователей 4)тестирование по принципам работы ( позитивное и негативное \ рабочее приложение или нет) 
+5)по уровню функциональности  
+6)ручное и может быть автоматизированное 
+7) приемочное – подразумеваем что проект уже готов
+8) метод черного ящика - у нас нет доступа к коду 
+9)динамическое - код должен исполняться</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -903,6 +1081,66 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB7B7B7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -936,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1087,12 +1325,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1102,13 +1427,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1127,6 +1446,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1170,12 +1490,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1217,7 +1531,82 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1235,6 +1624,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546491</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>184493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26366734-3020-3971-0E13-5AB4D4FC5821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5886450"/>
+          <a:ext cx="7607691" cy="6680543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1440,8 +1884,8 @@
   </sheetPr>
   <dimension ref="A1:H981"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1494,8 +1938,8 @@
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>41</v>
+      <c r="A5" s="60" t="s">
+        <v>85</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2622,15 +3066,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A5" sqref="A5:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="30.6328125" customWidth="1"/>
     <col min="8" max="8" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2679,8 +3125,8 @@
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>2</v>
+      <c r="A5" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2820,7 +3266,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -2859,145 +3305,250 @@
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="26" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="71">
         <v>1</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="B26" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="73">
         <v>2</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="B27" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="73">
         <v>3</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="B28" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="73">
         <v>4</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="B29" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="74"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="73">
         <v>5</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="B30" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="74"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="73">
         <v>6</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="B31" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="74"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="73">
         <v>7</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="B32" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="74"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="73">
         <v>8</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="B33" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="73">
         <v>9</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="B34" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="74"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="73">
         <v>10</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="B35" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="74"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="73">
         <v>11</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="B36" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="74"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="73">
         <v>12</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="B37" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="74"/>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="73">
         <v>13</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>10</v>
+      <c r="B38" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="73">
+        <v>14</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="73">
+        <v>15</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="76"/>
+      <c r="D40" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="73">
+        <v>16</v>
+      </c>
+      <c r="B41" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="76"/>
+      <c r="D41" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="74" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B27:C27"/>
@@ -3031,9 +3582,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H997"/>
+  <dimension ref="A1:H1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3041,8 +3594,8 @@
     <col min="2" max="2" width="31.6328125" customWidth="1"/>
     <col min="3" max="3" width="28.453125" customWidth="1"/>
     <col min="4" max="4" width="26.36328125" customWidth="1"/>
-    <col min="5" max="5" width="35.6328125" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="5" max="5" width="35.6328125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,166 +3621,166 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -3252,80 +3805,110 @@
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>1</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>49</v>
+      </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>51</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>55</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
@@ -3334,8 +3917,12 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
@@ -3344,512 +3931,790 @@
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="E28" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="E29" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
+    <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
         <v>2</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="E34" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>68</v>
+      </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="E35" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>51</v>
+      </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="E36" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="E37" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>55</v>
+      </c>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="E38" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="E39" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="40" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H44" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31">
+    <row r="45" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
         <v>3</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="E46" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>71</v>
+      </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="E47" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="E48" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="E49" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>55</v>
+      </c>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31">
-        <v>4</v>
-      </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+    </row>
+    <row r="53" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="E53" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="E54" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>74</v>
+      </c>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
+    <row r="55" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="31">
+        <v>4</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="34"/>
+    </row>
+    <row r="58" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="E58" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="54" t="s">
+        <v>71</v>
+      </c>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="E59" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="55" t="s">
+        <v>51</v>
+      </c>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+    </row>
+    <row r="61" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+    </row>
+    <row r="62" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="E63" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="E64" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="E65" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="E66" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>74</v>
+      </c>
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
+    <row r="67" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" s="34"/>
+    </row>
+    <row r="70" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="32"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+    </row>
+    <row r="71" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+    </row>
+    <row r="72" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="32"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+    </row>
+    <row r="73" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+    </row>
+    <row r="74" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+    </row>
+    <row r="75" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+    </row>
+    <row r="76" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+    </row>
+    <row r="77" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="33"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4768,34 +5633,41 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G52:G60"/>
-    <mergeCell ref="G62:G70"/>
-    <mergeCell ref="H62:H70"/>
+    <mergeCell ref="G57:G67"/>
+    <mergeCell ref="G69:G77"/>
+    <mergeCell ref="H69:H77"/>
     <mergeCell ref="G22:G30"/>
     <mergeCell ref="H22:H30"/>
-    <mergeCell ref="G32:G40"/>
-    <mergeCell ref="H32:H40"/>
-    <mergeCell ref="G42:G50"/>
-    <mergeCell ref="H42:H50"/>
-    <mergeCell ref="H52:H60"/>
-    <mergeCell ref="C62:C70"/>
-    <mergeCell ref="D62:D70"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="C52:C60"/>
-    <mergeCell ref="D52:D60"/>
-    <mergeCell ref="A62:A70"/>
-    <mergeCell ref="B62:B70"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="G33:G43"/>
+    <mergeCell ref="H33:H43"/>
+    <mergeCell ref="G45:G55"/>
+    <mergeCell ref="H45:H55"/>
+    <mergeCell ref="H57:H67"/>
+    <mergeCell ref="C69:C77"/>
+    <mergeCell ref="D69:D77"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="C57:C67"/>
+    <mergeCell ref="D57:D67"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="C33:C43"/>
+    <mergeCell ref="D33:D43"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="C45:C55"/>
+    <mergeCell ref="D45:D55"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:H17"/>
     <mergeCell ref="A19:H20"/>
@@ -4804,7 +5676,9 @@
     <mergeCell ref="C22:C30"/>
     <mergeCell ref="D22:D30"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4815,7 +5689,9 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4845,7 +5721,7 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="17"/>
@@ -4868,7 +5744,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -4919,8 +5795,8 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>21</v>
+      <c r="A10" s="61" t="s">
+        <v>86</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -4942,7 +5818,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -4994,7 +5870,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5016,7 +5892,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -5068,7 +5944,7 @@
     </row>
     <row r="24" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -5090,7 +5966,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -6123,6 +6999,7 @@
     <mergeCell ref="A19:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6133,7 +7010,9 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6146,8 +7025,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>24</v>
+      <c r="A1" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -6173,39 +7052,39 @@
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="46" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="39">
         <v>1</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="48"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="26"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
@@ -6213,7 +7092,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="25"/>
       <c r="E5" s="26"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
@@ -6224,20 +7103,20 @@
       <c r="C6" s="21"/>
       <c r="D6" s="25"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
-      <c r="B7" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="44"/>
+      <c r="B7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="42"/>
       <c r="D7" s="25"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -6248,22 +7127,22 @@
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -6272,9 +7151,9 @@
       <c r="A10" s="32"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="40"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -6285,7 +7164,7 @@
       <c r="C11" s="26"/>
       <c r="D11" s="24"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -6296,7 +7175,7 @@
       <c r="C12" s="26"/>
       <c r="D12" s="24"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
@@ -6307,7 +7186,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="19"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -6316,39 +7195,39 @@
       <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="47"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="39">
         <v>2</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="26"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="42"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
@@ -6356,7 +7235,7 @@
       <c r="C16" s="26"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -6367,20 +7246,20 @@
       <c r="C17" s="21"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
-      <c r="B18" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="44"/>
+      <c r="B18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="42"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -6391,22 +7270,22 @@
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39" t="s">
-        <v>30</v>
-      </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -6415,9 +7294,9 @@
       <c r="A21" s="32"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="40"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
@@ -6428,7 +7307,7 @@
       <c r="C22" s="26"/>
       <c r="D22" s="24"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -6439,7 +7318,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="24"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
@@ -6450,7 +7329,7 @@
       <c r="C24" s="21"/>
       <c r="D24" s="19"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -6459,39 +7338,39 @@
       <c r="A25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
+      <c r="A26" s="39">
         <v>3</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="26"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="42"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="40"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
@@ -6499,7 +7378,7 @@
       <c r="C27" s="26"/>
       <c r="D27" s="25"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
@@ -6510,20 +7389,20 @@
       <c r="C28" s="21"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
-      <c r="B29" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="44"/>
+      <c r="B29" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="42"/>
       <c r="D29" s="25"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
@@ -6534,22 +7413,22 @@
       <c r="C30" s="21"/>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39" t="s">
-        <v>30</v>
-      </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
@@ -6558,9 +7437,9 @@
       <c r="A32" s="32"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="40"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
@@ -6571,7 +7450,7 @@
       <c r="C33" s="26"/>
       <c r="D33" s="24"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
@@ -6582,7 +7461,7 @@
       <c r="C34" s="26"/>
       <c r="D34" s="24"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -6593,17 +7472,17 @@
       <c r="C35" s="21"/>
       <c r="D35" s="19"/>
       <c r="E35" s="21"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -6776,538 +7655,538 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="A57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+      <c r="A58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+      <c r="A59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+      <c r="A61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="A63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+      <c r="A65" s="6"/>
     </row>
     <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+      <c r="A66" s="6"/>
     </row>
     <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+      <c r="A67" s="6"/>
     </row>
     <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+      <c r="A68" s="6"/>
     </row>
     <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+      <c r="A69" s="6"/>
     </row>
     <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+      <c r="A71" s="6"/>
     </row>
     <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+      <c r="A73" s="6"/>
     </row>
     <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="A75" s="6"/>
     </row>
     <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+      <c r="A77" s="6"/>
     </row>
     <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
+      <c r="A78" s="6"/>
     </row>
     <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
+      <c r="A79" s="6"/>
     </row>
     <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+      <c r="A80" s="6"/>
     </row>
     <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="6"/>
     </row>
     <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="A82" s="6"/>
     </row>
     <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
+      <c r="A83" s="6"/>
     </row>
     <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="A84" s="6"/>
     </row>
     <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="A85" s="6"/>
     </row>
     <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
+      <c r="A86" s="6"/>
     </row>
     <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+      <c r="A87" s="6"/>
     </row>
     <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+      <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
+      <c r="A89" s="6"/>
     </row>
     <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
+      <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
+      <c r="A91" s="6"/>
     </row>
     <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
+      <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
+      <c r="A93" s="6"/>
     </row>
     <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
+      <c r="A94" s="6"/>
     </row>
     <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
+      <c r="A95" s="6"/>
     </row>
     <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+      <c r="A96" s="6"/>
     </row>
     <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
+      <c r="A97" s="6"/>
     </row>
     <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
+      <c r="A98" s="6"/>
     </row>
     <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
+      <c r="A99" s="6"/>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
+      <c r="A100" s="6"/>
     </row>
     <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
+      <c r="A101" s="6"/>
     </row>
     <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
+      <c r="A102" s="6"/>
     </row>
     <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
+      <c r="A103" s="6"/>
     </row>
     <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
+      <c r="A104" s="6"/>
     </row>
     <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
+      <c r="A105" s="6"/>
     </row>
     <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
+      <c r="A106" s="6"/>
     </row>
     <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
+      <c r="A107" s="6"/>
     </row>
     <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
+      <c r="A108" s="6"/>
     </row>
     <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="A109" s="6"/>
     </row>
     <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="A110" s="6"/>
     </row>
     <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="6"/>
     </row>
     <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
+      <c r="A112" s="6"/>
     </row>
     <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
+      <c r="A113" s="6"/>
     </row>
     <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
+      <c r="A114" s="6"/>
     </row>
     <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
+      <c r="A115" s="6"/>
     </row>
     <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
+      <c r="A116" s="6"/>
     </row>
     <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
+      <c r="A117" s="6"/>
     </row>
     <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
+      <c r="A118" s="6"/>
     </row>
     <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
+      <c r="A119" s="6"/>
     </row>
     <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
+      <c r="A120" s="6"/>
     </row>
     <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
+      <c r="A121" s="6"/>
     </row>
     <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
+      <c r="A122" s="6"/>
     </row>
     <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
+      <c r="A123" s="6"/>
     </row>
     <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
+      <c r="A124" s="6"/>
     </row>
     <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
+      <c r="A125" s="6"/>
     </row>
     <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
+      <c r="A126" s="6"/>
     </row>
     <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="7"/>
+      <c r="A127" s="6"/>
     </row>
     <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
+      <c r="A128" s="6"/>
     </row>
     <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="7"/>
+      <c r="A129" s="6"/>
     </row>
     <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
+      <c r="A130" s="6"/>
     </row>
     <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
+      <c r="A132" s="6"/>
     </row>
     <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
+      <c r="A133" s="6"/>
     </row>
     <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
+      <c r="A134" s="6"/>
     </row>
     <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="7"/>
+      <c r="A136" s="6"/>
     </row>
     <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
+      <c r="A137" s="6"/>
     </row>
     <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
+      <c r="A138" s="6"/>
     </row>
     <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="7"/>
+      <c r="A139" s="6"/>
     </row>
     <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7"/>
+      <c r="A140" s="6"/>
     </row>
     <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7"/>
+      <c r="A141" s="6"/>
     </row>
     <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
+      <c r="A142" s="6"/>
     </row>
     <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="7"/>
+      <c r="A143" s="6"/>
     </row>
     <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
+      <c r="A144" s="6"/>
     </row>
     <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7"/>
+      <c r="A145" s="6"/>
     </row>
     <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
+      <c r="A147" s="6"/>
     </row>
     <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="7"/>
+      <c r="A148" s="6"/>
     </row>
     <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
+      <c r="A149" s="6"/>
     </row>
     <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
+      <c r="A150" s="6"/>
     </row>
     <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
+      <c r="A151" s="6"/>
     </row>
     <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
+      <c r="A152" s="6"/>
     </row>
     <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
+      <c r="A153" s="6"/>
     </row>
     <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7"/>
+      <c r="A154" s="6"/>
     </row>
     <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
+      <c r="A155" s="6"/>
     </row>
     <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
+      <c r="A156" s="6"/>
     </row>
     <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
+      <c r="A157" s="6"/>
     </row>
     <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
+      <c r="A158" s="6"/>
     </row>
     <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
+      <c r="A159" s="6"/>
     </row>
     <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
+      <c r="A160" s="6"/>
     </row>
     <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
+      <c r="A161" s="6"/>
     </row>
     <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
+      <c r="A162" s="6"/>
     </row>
     <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7"/>
+      <c r="A163" s="6"/>
     </row>
     <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
+      <c r="A164" s="6"/>
     </row>
     <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="A165" s="6"/>
     </row>
     <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="A166" s="6"/>
     </row>
     <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="A167" s="6"/>
     </row>
     <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
+      <c r="A168" s="6"/>
     </row>
     <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
+      <c r="A169" s="6"/>
     </row>
     <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="7"/>
+      <c r="A170" s="6"/>
     </row>
     <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
+      <c r="A171" s="6"/>
     </row>
     <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="7"/>
+      <c r="A172" s="6"/>
     </row>
     <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7"/>
+      <c r="A173" s="6"/>
     </row>
     <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7"/>
+      <c r="A174" s="6"/>
     </row>
     <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="7"/>
+      <c r="A175" s="6"/>
     </row>
     <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="7"/>
+      <c r="A176" s="6"/>
     </row>
     <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7"/>
+      <c r="A177" s="6"/>
     </row>
     <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7"/>
+      <c r="A178" s="6"/>
     </row>
     <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7"/>
+      <c r="A179" s="6"/>
     </row>
     <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7"/>
+      <c r="A180" s="6"/>
     </row>
     <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
+      <c r="A181" s="6"/>
     </row>
     <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7"/>
+      <c r="A182" s="6"/>
     </row>
     <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7"/>
+      <c r="A183" s="6"/>
     </row>
     <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
+      <c r="A184" s="6"/>
     </row>
     <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
+      <c r="A185" s="6"/>
     </row>
     <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
+      <c r="A186" s="6"/>
     </row>
     <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
+      <c r="A187" s="6"/>
     </row>
     <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
+      <c r="A188" s="6"/>
     </row>
     <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7"/>
+      <c r="A189" s="6"/>
     </row>
     <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
+      <c r="A190" s="6"/>
     </row>
     <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7"/>
+      <c r="A191" s="6"/>
     </row>
     <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
+      <c r="A192" s="6"/>
     </row>
     <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="7"/>
+      <c r="A193" s="6"/>
     </row>
     <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="7"/>
+      <c r="A194" s="6"/>
     </row>
     <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="7"/>
+      <c r="A195" s="6"/>
     </row>
     <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="7"/>
+      <c r="A196" s="6"/>
     </row>
     <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="7"/>
+      <c r="A197" s="6"/>
     </row>
     <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="7"/>
+      <c r="A198" s="6"/>
     </row>
     <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="7"/>
+      <c r="A199" s="6"/>
     </row>
     <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7"/>
+      <c r="A200" s="6"/>
     </row>
     <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
+      <c r="A201" s="6"/>
     </row>
     <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="7"/>
+      <c r="A202" s="6"/>
     </row>
     <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="7"/>
+      <c r="A203" s="6"/>
     </row>
     <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="7"/>
+      <c r="A204" s="6"/>
     </row>
     <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="7"/>
+      <c r="A205" s="6"/>
     </row>
     <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="7"/>
+      <c r="A206" s="6"/>
     </row>
     <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
+      <c r="A207" s="6"/>
     </row>
     <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="7"/>
+      <c r="A208" s="6"/>
     </row>
     <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="7"/>
+      <c r="A209" s="6"/>
     </row>
     <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
+      <c r="A210" s="6"/>
     </row>
     <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
+      <c r="A211" s="6"/>
     </row>
     <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="7"/>
+      <c r="A212" s="6"/>
     </row>
     <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="7"/>
+      <c r="A213" s="6"/>
     </row>
     <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="7"/>
+      <c r="A214" s="6"/>
     </row>
     <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="7"/>
+      <c r="A215" s="6"/>
     </row>
     <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="7"/>
+      <c r="A216" s="6"/>
     </row>
     <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="7"/>
+      <c r="A217" s="6"/>
     </row>
     <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="7"/>
+      <c r="A218" s="6"/>
     </row>
     <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
+      <c r="A219" s="6"/>
     </row>
     <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="7"/>
+      <c r="A220" s="6"/>
     </row>
     <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="7"/>
+      <c r="A221" s="6"/>
     </row>
     <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="7"/>
+      <c r="A222" s="6"/>
     </row>
     <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+      <c r="A223" s="6"/>
     </row>
     <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+      <c r="A224" s="6"/>
     </row>
     <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+      <c r="A225" s="6"/>
     </row>
     <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="7"/>
+      <c r="A226" s="6"/>
     </row>
     <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="7"/>
+      <c r="A227" s="6"/>
     </row>
     <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="7"/>
+      <c r="A228" s="6"/>
     </row>
     <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="7"/>
+      <c r="A229" s="6"/>
     </row>
     <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="7"/>
+      <c r="A230" s="6"/>
     </row>
     <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="7"/>
+      <c r="A231" s="6"/>
     </row>
     <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8137,7 +9016,9 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8146,7 +9027,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -8167,8 +9048,8 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>33</v>
+      <c r="A3" s="50" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -8219,8 +9100,8 @@
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>34</v>
+      <c r="A8" s="48" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -8271,8 +9152,8 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>35</v>
+      <c r="A13" s="48" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -8323,8 +9204,8 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>36</v>
+      <c r="A18" s="48" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -8375,8 +9256,8 @@
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
-        <v>37</v>
+      <c r="A23" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -8429,8 +9310,8 @@
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
-        <v>38</v>
+      <c r="A30" s="49" t="s">
+        <v>37</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -8481,8 +9362,8 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
-        <v>39</v>
+      <c r="A35" s="48" t="s">
+        <v>38</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -8545,8 +9426,8 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
-        <v>40</v>
+      <c r="A43" s="49" t="s">
+        <v>39</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -8597,8 +9478,8 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
-        <v>39</v>
+      <c r="A48" s="48" t="s">
+        <v>38</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
